--- a/data/trans_dic/p64d1_r-Edad-trans_dic.xlsx
+++ b/data/trans_dic/p64d1_r-Edad-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>21,51; 52,24</t>
+          <t>20,42; 50,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>20,75; 47,07</t>
+          <t>20,05; 46,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>25,01; 45,09</t>
+          <t>24,37; 45,78</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,19; 27,69</t>
+          <t>16,3; 27,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>32,87; 49,48</t>
+          <t>33,23; 49,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>25,8; 35,96</t>
+          <t>26,0; 36,09</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>18,77; 26,97</t>
+          <t>18,98; 26,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>30,88; 39,23</t>
+          <t>31,2; 39,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>25,46; 31,13</t>
+          <t>25,29; 31,05</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,56; 24,74</t>
+          <t>15,07; 24,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>31,66; 39,92</t>
+          <t>31,47; 40,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>23,14; 30,63</t>
+          <t>22,77; 30,66</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>22,7; 32,45</t>
+          <t>22,84; 32,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>41,31; 51,69</t>
+          <t>41,55; 51,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>31,5; 39,11</t>
+          <t>31,93; 39,04</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>36,01; 72,92</t>
+          <t>35,36; 72,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>43,23; 76,17</t>
+          <t>43,39; 76,59</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>45,0; 70,83</t>
+          <t>45,9; 68,18</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>21,08; 25,83</t>
+          <t>20,87; 25,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>35,64; 41,06</t>
+          <t>35,82; 40,9</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>28,13; 32,02</t>
+          <t>28,17; 32,1</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/p64d1_r-Edad-trans_dic.xlsx
+++ b/data/trans_dic/p64d1_r-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>20,42; 50,43</t>
+          <t>21,51; 52,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>20,05; 46,74</t>
+          <t>20,75; 47,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>24,37; 45,78</t>
+          <t>25,01; 45,09</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,3; 27,15</t>
+          <t>16,19; 27,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>33,23; 49,26</t>
+          <t>32,87; 49,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>26,0; 36,09</t>
+          <t>25,8; 35,96</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>18,98; 26,62</t>
+          <t>18,77; 26,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>31,2; 39,55</t>
+          <t>30,88; 39,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>25,29; 31,05</t>
+          <t>25,46; 31,13</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,07; 24,58</t>
+          <t>14,56; 24,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>31,47; 40,2</t>
+          <t>31,66; 39,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>22,77; 30,66</t>
+          <t>23,14; 30,63</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>22,84; 32,36</t>
+          <t>22,7; 32,45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>41,55; 51,81</t>
+          <t>41,31; 51,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>31,93; 39,04</t>
+          <t>31,5; 39,11</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>35,36; 72,52</t>
+          <t>36,01; 72,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>43,39; 76,59</t>
+          <t>43,23; 76,17</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>45,9; 68,18</t>
+          <t>45,0; 70,83</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>20,87; 25,95</t>
+          <t>21,08; 25,83</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>35,82; 40,9</t>
+          <t>35,64; 41,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>28,17; 32,1</t>
+          <t>28,13; 32,02</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/p64d1_r-Edad-trans_dic.xlsx
+++ b/data/trans_dic/p64d1_r-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>35,27%</t>
+          <t>32,98%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>32,57%</t>
+          <t>32,18%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>33,9%</t>
+          <t>32,6%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>21,51; 52,24</t>
+          <t>19,17; 50,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>20,75; 47,07</t>
+          <t>20,56; 46,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>25,01; 45,09</t>
+          <t>23,63; 44,07</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>21,59%</t>
+          <t>21,11%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>39,2%</t>
+          <t>48,6%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>29,97%</t>
+          <t>34,85%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,19; 27,69</t>
+          <t>15,72; 27,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>32,87; 49,48</t>
+          <t>33,93; 72,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>25,8; 35,96</t>
+          <t>26,62; 57,5</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>22,51%</t>
+          <t>21,79%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>35,33%</t>
+          <t>34,91%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>28,15%</t>
+          <t>27,46%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>18,77; 26,97</t>
+          <t>18,23; 26,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>30,88; 39,23</t>
+          <t>30,61; 38,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>25,46; 31,13</t>
+          <t>24,84; 30,36</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>20,61%</t>
+          <t>14,89%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>35,61%</t>
+          <t>33,27%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>27,32%</t>
+          <t>21,84%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,56; 24,74</t>
+          <t>6,0; 23,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>31,66; 39,92</t>
+          <t>26,0; 37,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>23,14; 30,63</t>
+          <t>11,73; 28,53</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>27,47%</t>
+          <t>27,5%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>46,27%</t>
+          <t>46,14%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>35,26%</t>
+          <t>35,15%</t>
         </is>
       </c>
     </row>
@@ -779,24 +779,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>22,7; 32,45</t>
+          <t>22,67; 32,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>41,31; 51,69</t>
+          <t>41,24; 51,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>31,5; 39,11</t>
+          <t>31,39; 38,92</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>54,62%</t>
+          <t>55,58%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>60,93%</t>
+          <t>60,88%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>57,71%</t>
+          <t>58,29%</t>
         </is>
       </c>
     </row>
@@ -829,24 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>36,01; 72,92</t>
+          <t>36,59; 75,3</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>43,23; 76,17</t>
+          <t>43,71; 76,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>45,0; 70,83</t>
+          <t>43,82; 70,45</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>23,57%</t>
+          <t>53,32%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>38,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>30,08%</t>
+          <t>53,32%</t>
         </is>
       </c>
     </row>
@@ -879,29 +879,79 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>21,08; 25,83</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>35,64; 41,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>28,13; 32,02</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>20,76%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>39,44%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>28,72%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>13,37; 24,43</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>35,41; 49,81</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>22,38; 32,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -909,6 +959,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/p64d1_r-Edad-trans_dic.xlsx
+++ b/data/trans_dic/p64d1_r-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>19,17; 50,73</t>
+          <t>18,27; 49,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>20,56; 46,93</t>
+          <t>20,23; 46,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>23,63; 44,07</t>
+          <t>23,17; 44,31</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,72; 27,32</t>
+          <t>16,34; 27,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>33,93; 72,74</t>
+          <t>34,33; 74,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>26,62; 57,5</t>
+          <t>26,3; 55,77</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>18,23; 26,09</t>
+          <t>18,33; 25,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>30,61; 38,85</t>
+          <t>30,59; 39,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>24,84; 30,36</t>
+          <t>24,73; 30,61</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,0; 23,5</t>
+          <t>5,52; 23,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>26,0; 37,69</t>
+          <t>26,03; 37,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,73; 28,53</t>
+          <t>11,81; 28,44</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>22,67; 32,42</t>
+          <t>22,9; 32,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>41,24; 51,46</t>
+          <t>41,42; 51,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>31,39; 38,92</t>
+          <t>31,56; 38,92</t>
         </is>
       </c>
     </row>
@@ -829,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>36,59; 75,3</t>
+          <t>35,66; 76,62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>43,71; 76,19</t>
+          <t>44,31; 76,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>43,82; 70,45</t>
+          <t>44,37; 69,67</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>13,37; 24,43</t>
+          <t>14,05; 24,45</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>35,41; 49,81</t>
+          <t>35,3; 49,35</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>22,38; 32,67</t>
+          <t>22,69; 33,5</t>
         </is>
       </c>
     </row>
@@ -964,4 +965,684 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se traslada al trabajo o actividad habitual de forma activa</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>29887</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>26142</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>56029</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>16559; 44631</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>16436; 37752</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>39814; 76155</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>73969</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>169975</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>243945</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>57259; 95177</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>120054; 259764</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>184124; 390447</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>100673</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>122608</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>223282</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>84667; 119223</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>107433; 137577</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>201128; 248949</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>110931</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>150686</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>261617</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>41124; 174832</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>117876; 171383</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>141468; 340682</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>82255</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>96039</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>178293</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>68505; 96620</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>86216; 106828</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>160105; 197448</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>9417</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>10806</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>20224</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>6041; 12982</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>7866; 13633</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>15394; 24171</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>852</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>852</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1598</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1598</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>798</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>1227</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>407985</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>576256</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>984242</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>276125; 480515</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>515749; 720912</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>777389; 1147904</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>